--- a/data/nuri_mod2.xlsx
+++ b/data/nuri_mod2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/srcho/development/nuri/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A48148B-D402-DE45-BB48-B9955A6C40A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7AE0039C-80D8-9241-BC5C-EF86EA267095}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="880" windowWidth="36000" windowHeight="22500" xr2:uid="{9E559206-67DB-984C-941B-D6FEB5A98C28}"/>
   </bookViews>
@@ -17,7 +17,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="ExternalData_2" localSheetId="0" hidden="1">reflow!$A$1:$K$34</definedName>
+    <definedName name="ExternalData_2" localSheetId="0" hidden="1">reflow!$A$1:$K$27</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -54,7 +54,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="249" uniqueCount="139">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="139">
   <si>
     <t>node_id</t>
   </si>
@@ -591,10 +591,10 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{F6E0DA3F-7CEB-0446-ADEA-496F2DA28D76}" name="row__2" displayName="row__2" ref="A1:K34" tableType="queryTable" totalsRowShown="0">
-  <autoFilter ref="A1:K34" xr:uid="{F6E0DA3F-7CEB-0446-ADEA-496F2DA28D76}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:K34">
-    <sortCondition ref="K1:K34"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{F6E0DA3F-7CEB-0446-ADEA-496F2DA28D76}" name="row__2" displayName="row__2" ref="A1:K27" tableType="queryTable" totalsRowShown="0">
+  <autoFilter ref="A1:K27" xr:uid="{F6E0DA3F-7CEB-0446-ADEA-496F2DA28D76}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:K27">
+    <sortCondition ref="K1:K27"/>
   </sortState>
   <tableColumns count="11">
     <tableColumn id="1" xr3:uid="{D3C5E41A-113F-AC4E-AFDF-F2CDA1729391}" uniqueName="1" name="node_id" queryTableFieldId="1" dataDxfId="6"/>
@@ -930,7 +930,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7DE925BA-F7BB-764D-BEF8-460AA9F72820}">
-  <dimension ref="A1:K34"/>
+  <dimension ref="A1:K27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B11" sqref="B11"/>
@@ -1055,28 +1055,25 @@
     </row>
     <row r="4" spans="1:11">
       <c r="A4" t="s">
-        <v>63</v>
+        <v>85</v>
       </c>
       <c r="B4" t="s">
-        <v>64</v>
+        <v>86</v>
       </c>
       <c r="C4" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="D4" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E4">
-        <v>2010</v>
+        <v>2012</v>
       </c>
       <c r="F4">
-        <v>9</v>
-      </c>
-      <c r="G4">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H4" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="I4" t="e">
         <v>#N/A</v>
@@ -1085,59 +1082,62 @@
         <v>#N/A</v>
       </c>
       <c r="K4" t="s">
-        <v>65</v>
+        <v>87</v>
       </c>
     </row>
     <row r="5" spans="1:11">
       <c r="A5" t="s">
-        <v>85</v>
+        <v>94</v>
       </c>
       <c r="B5" t="s">
-        <v>86</v>
+        <v>95</v>
       </c>
       <c r="C5" t="s">
-        <v>26</v>
+        <v>11</v>
       </c>
       <c r="D5" t="s">
-        <v>36</v>
+        <v>12</v>
       </c>
       <c r="E5">
-        <v>2012</v>
+        <v>2007</v>
       </c>
       <c r="F5">
-        <v>2</v>
+        <v>10</v>
+      </c>
+      <c r="G5">
+        <v>1</v>
       </c>
       <c r="H5" t="s">
         <v>36</v>
       </c>
-      <c r="I5" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="J5" t="e">
-        <v>#N/A</v>
+      <c r="I5" t="s">
+        <v>36</v>
+      </c>
+      <c r="J5" t="s">
+        <v>119</v>
       </c>
       <c r="K5" t="s">
-        <v>87</v>
+        <v>96</v>
       </c>
     </row>
     <row r="6" spans="1:11">
       <c r="A6" t="s">
-        <v>94</v>
+        <v>106</v>
       </c>
       <c r="B6" t="s">
-        <v>95</v>
+        <v>107</v>
       </c>
       <c r="C6" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="D6" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="E6">
-        <v>2007</v>
+        <v>2006</v>
       </c>
       <c r="F6">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="G6">
         <v>1</v>
@@ -1149,82 +1149,82 @@
         <v>36</v>
       </c>
       <c r="J6" t="s">
-        <v>119</v>
+        <v>128</v>
       </c>
       <c r="K6" t="s">
-        <v>96</v>
+        <v>108</v>
       </c>
     </row>
     <row r="7" spans="1:11">
       <c r="A7" t="s">
-        <v>106</v>
+        <v>88</v>
       </c>
       <c r="B7" t="s">
-        <v>107</v>
+        <v>89</v>
       </c>
       <c r="C7" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="D7" t="s">
-        <v>19</v>
+        <v>36</v>
       </c>
       <c r="E7">
-        <v>2006</v>
-      </c>
-      <c r="F7">
-        <v>2</v>
-      </c>
-      <c r="G7">
-        <v>1</v>
+        <v>2019</v>
       </c>
       <c r="H7" t="s">
         <v>36</v>
       </c>
-      <c r="I7" t="s">
-        <v>36</v>
-      </c>
-      <c r="J7" t="s">
-        <v>128</v>
+      <c r="I7" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="J7" t="e">
+        <v>#N/A</v>
       </c>
       <c r="K7" t="s">
-        <v>108</v>
+        <v>90</v>
       </c>
     </row>
     <row r="8" spans="1:11">
       <c r="A8" t="s">
-        <v>88</v>
+        <v>46</v>
       </c>
       <c r="B8" t="s">
-        <v>89</v>
+        <v>47</v>
       </c>
       <c r="C8" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="D8" t="s">
-        <v>36</v>
+        <v>21</v>
       </c>
       <c r="E8">
-        <v>2019</v>
+        <v>2015</v>
+      </c>
+      <c r="F8">
+        <v>8</v>
+      </c>
+      <c r="G8">
+        <v>30</v>
       </c>
       <c r="H8" t="s">
         <v>36</v>
       </c>
-      <c r="I8" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="J8" t="e">
-        <v>#N/A</v>
+      <c r="I8" t="s">
+        <v>36</v>
+      </c>
+      <c r="J8" t="s">
+        <v>132</v>
       </c>
       <c r="K8" t="s">
-        <v>90</v>
+        <v>48</v>
       </c>
     </row>
     <row r="9" spans="1:11">
       <c r="A9" t="s">
-        <v>46</v>
+        <v>76</v>
       </c>
       <c r="B9" t="s">
-        <v>47</v>
+        <v>77</v>
       </c>
       <c r="C9" t="s">
         <v>20</v>
@@ -1236,7 +1236,7 @@
         <v>2015</v>
       </c>
       <c r="F9">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="G9">
         <v>30</v>
@@ -1248,33 +1248,33 @@
         <v>36</v>
       </c>
       <c r="J9" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="K9" t="s">
-        <v>48</v>
+        <v>78</v>
       </c>
     </row>
     <row r="10" spans="1:11">
       <c r="A10" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="B10" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="C10" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="D10" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="E10">
-        <v>2015</v>
+        <v>2013</v>
       </c>
       <c r="F10">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="G10">
-        <v>30</v>
+        <v>1</v>
       </c>
       <c r="H10" t="s">
         <v>36</v>
@@ -1283,33 +1283,33 @@
         <v>36</v>
       </c>
       <c r="J10" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="K10" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
     </row>
     <row r="11" spans="1:11">
       <c r="A11" t="s">
-        <v>73</v>
+        <v>103</v>
       </c>
       <c r="B11" t="s">
-        <v>74</v>
+        <v>104</v>
       </c>
       <c r="C11" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D11" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E11">
-        <v>2013</v>
+        <v>2017</v>
       </c>
       <c r="F11">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G11">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="H11" t="s">
         <v>36</v>
@@ -1318,33 +1318,33 @@
         <v>36</v>
       </c>
       <c r="J11" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="K11" t="s">
-        <v>75</v>
+        <v>105</v>
       </c>
     </row>
     <row r="12" spans="1:11">
       <c r="A12" t="s">
-        <v>103</v>
+        <v>109</v>
       </c>
       <c r="B12" t="s">
-        <v>104</v>
+        <v>110</v>
       </c>
       <c r="C12" t="s">
-        <v>14</v>
+        <v>32</v>
       </c>
       <c r="D12" t="s">
-        <v>15</v>
+        <v>49</v>
       </c>
       <c r="E12">
-        <v>2017</v>
+        <v>2009</v>
       </c>
       <c r="F12">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="G12">
-        <v>30</v>
+        <v>1</v>
       </c>
       <c r="H12" t="s">
         <v>36</v>
@@ -1353,30 +1353,30 @@
         <v>36</v>
       </c>
       <c r="J12" t="s">
-        <v>126</v>
+        <v>135</v>
       </c>
       <c r="K12" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
     </row>
     <row r="13" spans="1:11">
       <c r="A13" t="s">
-        <v>109</v>
+        <v>37</v>
       </c>
       <c r="B13" t="s">
-        <v>110</v>
+        <v>38</v>
       </c>
       <c r="C13" t="s">
-        <v>32</v>
+        <v>11</v>
       </c>
       <c r="D13" t="s">
-        <v>49</v>
+        <v>13</v>
       </c>
       <c r="E13">
-        <v>2009</v>
+        <v>2013</v>
       </c>
       <c r="F13">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="G13">
         <v>1</v>
@@ -1388,71 +1388,65 @@
         <v>36</v>
       </c>
       <c r="J13" t="s">
-        <v>135</v>
+        <v>120</v>
       </c>
       <c r="K13" t="s">
-        <v>111</v>
+        <v>39</v>
       </c>
     </row>
     <row r="14" spans="1:11">
       <c r="A14" t="s">
-        <v>37</v>
+        <v>66</v>
       </c>
       <c r="B14" t="s">
-        <v>38</v>
+        <v>67</v>
       </c>
       <c r="C14" t="s">
-        <v>11</v>
+        <v>34</v>
       </c>
       <c r="D14" t="s">
-        <v>13</v>
+        <v>35</v>
       </c>
       <c r="E14">
-        <v>2013</v>
+        <v>2023</v>
       </c>
       <c r="F14">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="G14">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="H14" t="s">
-        <v>36</v>
-      </c>
-      <c r="I14" t="s">
-        <v>36</v>
-      </c>
-      <c r="J14" t="s">
-        <v>120</v>
+        <v>68</v>
+      </c>
+      <c r="I14" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="J14" t="e">
+        <v>#N/A</v>
       </c>
       <c r="K14" t="s">
-        <v>39</v>
+        <v>69</v>
       </c>
     </row>
     <row r="15" spans="1:11">
       <c r="A15" t="s">
-        <v>66</v>
+        <v>115</v>
       </c>
       <c r="B15" t="s">
-        <v>67</v>
+        <v>116</v>
       </c>
       <c r="C15" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="D15" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E15">
-        <v>2023</v>
-      </c>
-      <c r="F15">
-        <v>12</v>
-      </c>
-      <c r="G15">
-        <v>20</v>
+        <v>2005</v>
       </c>
       <c r="H15" t="s">
-        <v>68</v>
+        <v>36</v>
       </c>
       <c r="I15" t="e">
         <v>#N/A</v>
@@ -1461,33 +1455,30 @@
         <v>#N/A</v>
       </c>
       <c r="K15" t="s">
-        <v>69</v>
+        <v>117</v>
       </c>
     </row>
     <row r="16" spans="1:11">
       <c r="A16" t="s">
-        <v>66</v>
+        <v>91</v>
       </c>
       <c r="B16" t="s">
-        <v>67</v>
+        <v>92</v>
       </c>
       <c r="C16" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D16" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E16">
-        <v>2023</v>
+        <v>2022</v>
       </c>
       <c r="F16">
-        <v>12</v>
-      </c>
-      <c r="G16">
-        <v>20</v>
+        <v>4</v>
       </c>
       <c r="H16" t="s">
-        <v>68</v>
+        <v>36</v>
       </c>
       <c r="I16" t="e">
         <v>#N/A</v>
@@ -1496,85 +1487,85 @@
         <v>#N/A</v>
       </c>
       <c r="K16" t="s">
-        <v>69</v>
+        <v>93</v>
       </c>
     </row>
     <row r="17" spans="1:11">
       <c r="A17" t="s">
-        <v>66</v>
+        <v>79</v>
       </c>
       <c r="B17" t="s">
-        <v>67</v>
+        <v>80</v>
       </c>
       <c r="C17" t="s">
-        <v>34</v>
+        <v>22</v>
       </c>
       <c r="D17" t="s">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="E17">
-        <v>2023</v>
+        <v>2012</v>
       </c>
       <c r="F17">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="G17">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="H17" t="s">
-        <v>68</v>
-      </c>
-      <c r="I17" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="J17" t="e">
-        <v>#N/A</v>
+        <v>36</v>
+      </c>
+      <c r="I17" t="s">
+        <v>36</v>
+      </c>
+      <c r="J17" t="s">
+        <v>130</v>
       </c>
       <c r="K17" t="s">
-        <v>69</v>
+        <v>81</v>
       </c>
     </row>
     <row r="18" spans="1:11">
       <c r="A18" t="s">
-        <v>66</v>
+        <v>112</v>
       </c>
       <c r="B18" t="s">
-        <v>67</v>
+        <v>113</v>
       </c>
       <c r="C18" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="D18" t="s">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="E18">
-        <v>2023</v>
+        <v>2014</v>
       </c>
       <c r="F18">
         <v>12</v>
       </c>
       <c r="G18">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="H18" t="s">
-        <v>68</v>
-      </c>
-      <c r="I18" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="J18" t="e">
-        <v>#N/A</v>
+        <v>36</v>
+      </c>
+      <c r="I18" t="s">
+        <v>36</v>
+      </c>
+      <c r="J18" t="s">
+        <v>129</v>
       </c>
       <c r="K18" t="s">
-        <v>69</v>
+        <v>114</v>
       </c>
     </row>
     <row r="19" spans="1:11">
       <c r="A19" t="s">
-        <v>115</v>
+        <v>53</v>
       </c>
       <c r="B19" t="s">
-        <v>116</v>
+        <v>54</v>
       </c>
       <c r="C19" t="s">
         <v>30</v>
@@ -1583,7 +1574,7 @@
         <v>36</v>
       </c>
       <c r="E19">
-        <v>2005</v>
+        <v>2010</v>
       </c>
       <c r="H19" t="s">
         <v>36</v>
@@ -1595,59 +1586,62 @@
         <v>#N/A</v>
       </c>
       <c r="K19" t="s">
-        <v>117</v>
+        <v>55</v>
       </c>
     </row>
     <row r="20" spans="1:11">
       <c r="A20" t="s">
-        <v>91</v>
+        <v>100</v>
       </c>
       <c r="B20" t="s">
-        <v>92</v>
+        <v>101</v>
       </c>
       <c r="C20" t="s">
+        <v>11</v>
+      </c>
+      <c r="D20" t="s">
+        <v>12</v>
+      </c>
+      <c r="E20">
+        <v>2021</v>
+      </c>
+      <c r="F20">
+        <v>12</v>
+      </c>
+      <c r="G20">
         <v>31</v>
       </c>
-      <c r="D20" t="s">
-        <v>36</v>
-      </c>
-      <c r="E20">
-        <v>2022</v>
-      </c>
-      <c r="F20">
-        <v>4</v>
-      </c>
       <c r="H20" t="s">
         <v>36</v>
       </c>
-      <c r="I20" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="J20" t="e">
-        <v>#N/A</v>
+      <c r="I20" t="s">
+        <v>122</v>
+      </c>
+      <c r="J20" t="s">
+        <v>123</v>
       </c>
       <c r="K20" t="s">
-        <v>93</v>
+        <v>102</v>
       </c>
     </row>
     <row r="21" spans="1:11">
       <c r="A21" t="s">
-        <v>79</v>
+        <v>40</v>
       </c>
       <c r="B21" t="s">
-        <v>80</v>
+        <v>41</v>
       </c>
       <c r="C21" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="D21" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="E21">
-        <v>2012</v>
+        <v>2005</v>
       </c>
       <c r="F21">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="G21">
         <v>1</v>
@@ -1659,27 +1653,27 @@
         <v>36</v>
       </c>
       <c r="J21" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="K21" t="s">
-        <v>81</v>
+        <v>42</v>
       </c>
     </row>
     <row r="22" spans="1:11">
       <c r="A22" t="s">
-        <v>112</v>
+        <v>82</v>
       </c>
       <c r="B22" t="s">
-        <v>113</v>
+        <v>83</v>
       </c>
       <c r="C22" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="D22" t="s">
-        <v>25</v>
+        <v>49</v>
       </c>
       <c r="E22">
-        <v>2014</v>
+        <v>2018</v>
       </c>
       <c r="F22">
         <v>12</v>
@@ -1694,129 +1688,132 @@
         <v>36</v>
       </c>
       <c r="J22" t="s">
-        <v>129</v>
+        <v>136</v>
       </c>
       <c r="K22" t="s">
-        <v>114</v>
+        <v>84</v>
       </c>
     </row>
     <row r="23" spans="1:11">
       <c r="A23" t="s">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="B23" t="s">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="C23" t="s">
+        <v>14</v>
+      </c>
+      <c r="D23" t="s">
+        <v>15</v>
+      </c>
+      <c r="E23">
+        <v>2016</v>
+      </c>
+      <c r="F23">
+        <v>11</v>
+      </c>
+      <c r="G23">
         <v>30</v>
       </c>
-      <c r="D23" t="s">
-        <v>36</v>
-      </c>
-      <c r="E23">
-        <v>2010</v>
-      </c>
       <c r="H23" t="s">
         <v>36</v>
       </c>
-      <c r="I23" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="J23" t="e">
-        <v>#N/A</v>
+      <c r="I23" t="s">
+        <v>36</v>
+      </c>
+      <c r="J23" t="s">
+        <v>125</v>
       </c>
       <c r="K23" t="s">
-        <v>55</v>
+        <v>45</v>
       </c>
     </row>
     <row r="24" spans="1:11">
       <c r="A24" t="s">
-        <v>100</v>
+        <v>70</v>
       </c>
       <c r="B24" t="s">
-        <v>101</v>
+        <v>71</v>
       </c>
       <c r="C24" t="s">
+        <v>9</v>
+      </c>
+      <c r="D24" t="s">
+        <v>10</v>
+      </c>
+      <c r="E24">
+        <v>2018</v>
+      </c>
+      <c r="F24">
         <v>11</v>
       </c>
-      <c r="D24" t="s">
-        <v>12</v>
-      </c>
-      <c r="E24">
-        <v>2021</v>
-      </c>
-      <c r="F24">
-        <v>12</v>
-      </c>
       <c r="G24">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H24" t="s">
         <v>36</v>
       </c>
       <c r="I24" t="s">
-        <v>122</v>
+        <v>36</v>
       </c>
       <c r="J24" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="K24" t="s">
-        <v>102</v>
+        <v>72</v>
       </c>
     </row>
     <row r="25" spans="1:11">
       <c r="A25" t="s">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="B25" t="s">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="C25" t="s">
-        <v>14</v>
+        <v>29</v>
       </c>
       <c r="D25" t="s">
-        <v>15</v>
+        <v>36</v>
       </c>
       <c r="E25">
-        <v>2005</v>
+        <v>2021</v>
       </c>
       <c r="F25">
         <v>11</v>
       </c>
-      <c r="G25">
-        <v>1</v>
-      </c>
       <c r="H25" t="s">
         <v>36</v>
       </c>
-      <c r="I25" t="s">
-        <v>36</v>
-      </c>
-      <c r="J25" t="s">
-        <v>124</v>
+      <c r="I25" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="J25" t="e">
+        <v>#N/A</v>
       </c>
       <c r="K25" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
     </row>
     <row r="26" spans="1:11">
       <c r="A26" t="s">
-        <v>82</v>
+        <v>97</v>
       </c>
       <c r="B26" t="s">
-        <v>83</v>
+        <v>98</v>
       </c>
       <c r="C26" t="s">
-        <v>32</v>
+        <v>11</v>
       </c>
       <c r="D26" t="s">
-        <v>49</v>
+        <v>12</v>
       </c>
       <c r="E26">
-        <v>2018</v>
+        <v>2017</v>
       </c>
       <c r="F26">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="G26">
         <v>30</v>
@@ -1828,286 +1825,44 @@
         <v>36</v>
       </c>
       <c r="J26" t="s">
-        <v>136</v>
+        <v>121</v>
       </c>
       <c r="K26" t="s">
-        <v>84</v>
+        <v>99</v>
       </c>
     </row>
     <row r="27" spans="1:11">
       <c r="A27" t="s">
-        <v>43</v>
+        <v>56</v>
       </c>
       <c r="B27" t="s">
-        <v>44</v>
+        <v>57</v>
       </c>
       <c r="C27" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="D27" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="E27">
-        <v>2016</v>
+        <v>2023</v>
       </c>
       <c r="F27">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="G27">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H27" t="s">
-        <v>36</v>
+        <v>58</v>
       </c>
       <c r="I27" t="s">
-        <v>36</v>
+        <v>133</v>
       </c>
       <c r="J27" t="s">
-        <v>125</v>
+        <v>134</v>
       </c>
       <c r="K27" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="28" spans="1:11">
-      <c r="A28" t="s">
-        <v>70</v>
-      </c>
-      <c r="B28" t="s">
-        <v>71</v>
-      </c>
-      <c r="C28" t="s">
-        <v>9</v>
-      </c>
-      <c r="D28" t="s">
-        <v>10</v>
-      </c>
-      <c r="E28">
-        <v>2018</v>
-      </c>
-      <c r="F28">
-        <v>11</v>
-      </c>
-      <c r="G28">
-        <v>30</v>
-      </c>
-      <c r="H28" t="s">
-        <v>36</v>
-      </c>
-      <c r="I28" t="s">
-        <v>36</v>
-      </c>
-      <c r="J28" t="s">
-        <v>118</v>
-      </c>
-      <c r="K28" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="29" spans="1:11">
-      <c r="A29" t="s">
-        <v>50</v>
-      </c>
-      <c r="B29" t="s">
-        <v>51</v>
-      </c>
-      <c r="C29" t="s">
-        <v>29</v>
-      </c>
-      <c r="D29" t="s">
-        <v>36</v>
-      </c>
-      <c r="E29">
-        <v>2021</v>
-      </c>
-      <c r="F29">
-        <v>11</v>
-      </c>
-      <c r="H29" t="s">
-        <v>36</v>
-      </c>
-      <c r="I29" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="J29" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="K29" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="30" spans="1:11">
-      <c r="A30" t="s">
-        <v>97</v>
-      </c>
-      <c r="B30" t="s">
-        <v>98</v>
-      </c>
-      <c r="C30" t="s">
-        <v>11</v>
-      </c>
-      <c r="D30" t="s">
-        <v>12</v>
-      </c>
-      <c r="E30">
-        <v>2017</v>
-      </c>
-      <c r="F30">
-        <v>6</v>
-      </c>
-      <c r="G30">
-        <v>30</v>
-      </c>
-      <c r="H30" t="s">
-        <v>36</v>
-      </c>
-      <c r="I30" t="s">
-        <v>36</v>
-      </c>
-      <c r="J30" t="s">
-        <v>121</v>
-      </c>
-      <c r="K30" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="31" spans="1:11">
-      <c r="A31" t="s">
-        <v>56</v>
-      </c>
-      <c r="B31" t="s">
-        <v>57</v>
-      </c>
-      <c r="C31" t="s">
-        <v>20</v>
-      </c>
-      <c r="D31" t="s">
-        <v>21</v>
-      </c>
-      <c r="E31">
-        <v>2023</v>
-      </c>
-      <c r="F31">
-        <v>8</v>
-      </c>
-      <c r="G31">
-        <v>31</v>
-      </c>
-      <c r="H31" t="s">
-        <v>58</v>
-      </c>
-      <c r="I31" t="s">
-        <v>133</v>
-      </c>
-      <c r="J31" t="s">
-        <v>134</v>
-      </c>
-      <c r="K31" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="32" spans="1:11">
-      <c r="A32" t="s">
-        <v>56</v>
-      </c>
-      <c r="B32" t="s">
-        <v>57</v>
-      </c>
-      <c r="C32" t="s">
-        <v>20</v>
-      </c>
-      <c r="D32" t="s">
-        <v>21</v>
-      </c>
-      <c r="E32">
-        <v>2023</v>
-      </c>
-      <c r="F32">
-        <v>8</v>
-      </c>
-      <c r="G32">
-        <v>31</v>
-      </c>
-      <c r="H32" t="s">
-        <v>58</v>
-      </c>
-      <c r="I32" t="s">
-        <v>133</v>
-      </c>
-      <c r="J32" t="s">
-        <v>134</v>
-      </c>
-      <c r="K32" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="33" spans="1:11">
-      <c r="A33" t="s">
-        <v>56</v>
-      </c>
-      <c r="B33" t="s">
-        <v>57</v>
-      </c>
-      <c r="C33" t="s">
-        <v>20</v>
-      </c>
-      <c r="D33" t="s">
-        <v>21</v>
-      </c>
-      <c r="E33">
-        <v>2023</v>
-      </c>
-      <c r="F33">
-        <v>8</v>
-      </c>
-      <c r="G33">
-        <v>31</v>
-      </c>
-      <c r="H33" t="s">
-        <v>58</v>
-      </c>
-      <c r="I33" t="s">
-        <v>133</v>
-      </c>
-      <c r="J33" t="s">
-        <v>134</v>
-      </c>
-      <c r="K33" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="34" spans="1:11">
-      <c r="A34" t="s">
-        <v>56</v>
-      </c>
-      <c r="B34" t="s">
-        <v>57</v>
-      </c>
-      <c r="C34" t="s">
-        <v>20</v>
-      </c>
-      <c r="D34" t="s">
-        <v>21</v>
-      </c>
-      <c r="E34">
-        <v>2023</v>
-      </c>
-      <c r="F34">
-        <v>8</v>
-      </c>
-      <c r="G34">
-        <v>31</v>
-      </c>
-      <c r="H34" t="s">
-        <v>58</v>
-      </c>
-      <c r="I34" t="s">
-        <v>133</v>
-      </c>
-      <c r="J34" t="s">
-        <v>134</v>
-      </c>
-      <c r="K34" t="s">
         <v>59</v>
       </c>
     </row>
